--- a/hadoop_config.xlsx
+++ b/hadoop_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="129" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>advanced hadoop configuration</t>
   </si>
@@ -40,6 +40,30 @@
   <si>
     <t>The maximum amount of memory (in bytes) a DataNode can use for caching. Default: 0. Must be less than the value of the OS configuration property ulimit -l for the DataNode user.
 Used by DataNodes.</t>
+  </si>
+  <si>
+    <t>dfs.datanode.du.reserved</t>
+  </si>
+  <si>
+    <t> the amount of space on each volume which cannot be used for hdfs block storage</t>
+  </si>
+  <si>
+    <t>dfs.datanode.data.dir</t>
+  </si>
+  <si>
+    <t>where on the local filesystem a datanode stores its blocks. comma-sep list.</t>
+  </si>
+  <si>
+    <t>dfs.blocksize</t>
+  </si>
+  <si>
+    <t>the block size for new files in bytes</t>
+  </si>
+  <si>
+    <t>dfs.replication</t>
+  </si>
+  <si>
+    <t>the number of times each block should be replication. Default 3</t>
   </si>
   <si>
     <t>Core-site.xml</t>
@@ -101,18 +125,14 @@
     <t>yarn.app.mapreduce.am.resource.mb</t>
   </si>
   <si>
-    <t>Amount of memory to allocate for the
-ApplicationMaster. Default: 1536.
-Recommendation: 1024. Used by clients
-and NodeManagers.</t>
+    <t>Amount of memory to allocate for the ApplicationMaster. Default: 1536. Recommendation: 1024. Used by clients and NodeManagers.</t>
   </si>
   <si>
     <t>yarn.nodemanager.pmem-
 Check-enabled</t>
   </si>
   <si>
-    <t>If true, monitor containers’ use of physical
-memory. Default: true. Recommendation:
+    <t>If true, monitor containers’ use of physical memory. Default: true. Recommendation:
 True.</t>
   </si>
   <si>
@@ -120,9 +140,43 @@
 Check-enabled</t>
   </si>
   <si>
-    <t>If true, monitor containers’ use of virtual
-memory. Default: false.
-Recommendation: false.</t>
+    <t>If true, monitor containers’ use of virtual memory. Default: false. Recommendation: false.</t>
+  </si>
+  <si>
+    <t>yarn.resourcemanager.address</t>
+  </si>
+  <si>
+    <t> 0.0.0.0:8032                host and port the resource manager's RPC server runs on</t>
+  </si>
+  <si>
+    <t>yarn.nodemanager.local-dirs </t>
+  </si>
+  <si>
+    <t>/tmp/nm-local-dir            list of dirs where node managers allow containers to store intermediate data. cleared when app ends</t>
+  </si>
+  <si>
+    <t>yarn.nodemanager.aux-services</t>
+  </si>
+  <si>
+    <t>list of auxiliary services run by the node manager</t>
+  </si>
+  <si>
+    <t>the amount of physical mem in MB that may be allocated to containers run by the node manager def is 8192MB</t>
+  </si>
+  <si>
+    <t>yarn.nodemanager.vmem-pmem-ratio</t>
+  </si>
+  <si>
+    <t>2.1                         ratio of virtual to physical memory for containers</t>
+  </si>
+  <si>
+    <t>yarn.resourcemanager.hostname</t>
+  </si>
+  <si>
+    <t>host name od the ResourceManager, used by the Resource manager, NodeManagers and clients</t>
+  </si>
+  <si>
+    <t> a list of one or more auxiliary services that support application frameworks running under YARN. e.g. shuffle used by nodemanagers</t>
   </si>
   <si>
     <t>scheduling in yarn</t>
@@ -132,32 +186,21 @@
 Undeclared-pools</t>
   </si>
   <si>
-    <t>When true, new pools can be created at
-application submission time or by the
-user-as-default-queue property. When
-false, submitting to a pool that is not
-specified in the fair-scheduler.xml
-file causes the application to be placed in
-the “default” pool. Default: true. Ignored if
-a pool placement policy is defined in the
-fair-scheduler.xml file.</t>
+    <t>When true, new pools can be created at application submission time or by the user-as-default-queue property. When false, submitting to a pool that is not specified in the fair-scheduler.xml file causes the application to be placed in the “default” pool. Default: true. Ignored if a pool placement policy is defined in the fair-scheduler.xml file.</t>
   </si>
   <si>
     <t>yarn.scheduler.fair.
 Preemption</t>
   </si>
   <si>
-    <t>Enables preemption in Fair Scheduler.
-Set to true if you have pools that must
-operate on an SLA. Default: false</t>
+    <t>Enables preemption in Fair Scheduler. Set to true if you have pools that must operate on an SLA. Default: false</t>
   </si>
   <si>
     <t>yarn.scheduler.fair.user-
 As-default-queue</t>
   </si>
   <si>
-    <t>Send jobs to pools based on users’
-names instead of to the default pool,
+    <t>Send jobs to pools based on users’ names instead of to the default pool,
 root.default. Default: true.</t>
   </si>
   <si>
@@ -167,22 +210,7 @@
 locality.threshold.rack</t>
   </si>
   <si>
-    <t>For applications that request containers
-on particular nodes or racks, the number
-of scheduling opportunities since the last
-container assignment to wait before
-accepting a placement on another node.
-Expressed as a float between 0 and 1,
-which, as a fraction of the cluster size, is
-the number of scheduling opportunities to
-pass up.. Default: 1 (don’t pass up any
-scheduling opportunities).
-Example: yarn.scheduler.fair.
-locality.threshold.node = 0.02,
-cluster size = 100 nodes.
-At most 2 scheduling opportunities can
-be skipped when preferred placement
-cannot be met.</t>
+    <t>For applications that request containers on particular nodes or racks, the number of scheduling opportunities since the last container assignment to wait before accepting a placement on another node. Expressed as a float between 0 and 1, which, as a fraction of the cluster size, is the number of scheduling opportunities to pass up.. Default: 1 (don’t pass up any scheduling opportunities). Example: yarn.scheduler.fair. locality.threshold.node = 0.02, cluster size = 100 nodes. At most 2 scheduling opportunities can be skipped when preferred placement cannot be met.</t>
   </si>
   <si>
     <t>mapred-site.xml</t>
@@ -191,11 +219,7 @@
     <t>yarn.app.mapreduce.am.Command-opts</t>
   </si>
   <si>
-    <t>Java options passed to the
-ApplicationMaster. Default is
--Xmx1024m (1GB of heap space).
-Recommendation: -Xmx768m, unless
-you are running enormous jobs. Used
+    <t>Java options passed to the ApplicationMaster. Default is -Xmx1024m (1GB of heap space). Recommendation: -Xmx768m, unless you are running enormous jobs. Used
 when ApplicationMasters are launched.</t>
   </si>
   <si>
@@ -265,11 +289,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,6 +316,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,6 +381,10 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,7 +393,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -391,15 +428,20 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -409,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -417,186 +459,293 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
